--- a/doc/[별첨1] PLC 에러코드 정리.xlsx
+++ b/doc/[별첨1] PLC 에러코드 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dbkim\IDE\hyundai_moter_uiwang_x64\git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE76ACFC-0E13-47A6-BF9E-F17CFC7E4B2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69089A52-0B4B-4E7C-8398-5D87AFAC09D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="에러코드표" sheetId="14" r:id="rId1"/>
@@ -581,6 +581,401 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58211</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>96024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BCDD6E-7EE6-4EDC-AE93-31490A7C401E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="84867750"/>
+          <a:ext cx="7602011" cy="5544324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124895</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>124573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5CDE26-0E64-44B0-804D-9217250B9807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="90525600"/>
+          <a:ext cx="7668695" cy="5363323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210493</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B20CC8F-FBBA-4781-BFA2-B9011B0BED79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="95973900"/>
+          <a:ext cx="7754293" cy="5438775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>216304</xdr:colOff>
+      <xdr:row>505</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2011C2D9-77BD-4D46-9665-9B3FDD698105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect l="368" t="628"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9524" y="101384100"/>
+          <a:ext cx="7750580" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>505</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210632</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>181664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2F2385-1DE9-4D4A-A2C0-1A59E6365AF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="105889425"/>
+          <a:ext cx="7754432" cy="4934639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>191578</xdr:colOff>
+      <xdr:row>557</xdr:row>
+      <xdr:rowOff>200888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A492BDA-7C27-4E49-897E-0CC0BB94881C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="110737650"/>
+          <a:ext cx="7725853" cy="6182588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>558</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220158</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>86585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02388F68-0FB9-420A-9803-2BB091A2718A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="116928900"/>
+          <a:ext cx="7763958" cy="6163535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210631</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>48181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D3CE75-5264-4376-AA6E-5C93FA2AA62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="123053475"/>
+          <a:ext cx="7744906" cy="3982006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220158</xdr:colOff>
+      <xdr:row>637</xdr:row>
+      <xdr:rowOff>86617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D791974-44D2-40EA-B108-BA9D294E8E8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="127177800"/>
+          <a:ext cx="7763958" cy="6392167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -854,8 +1249,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="A589" sqref="A589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
